--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101133</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940269</v>
+        <v>6734834.566101133</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21795.21913663615</v>
+        <v>1457922.755977235</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21795.21913663615</v>
+        <v>1457922.755977235</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419253498.931382</v>
+        <v>57304796.03787015</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12651.17530053697</v>
+        <v>1342210.50338973</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24232.23454984676</v>
+        <v>2507134.265697379</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35813.29379915652</v>
+        <v>3672058.02800503</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48000.15685100509</v>
+        <v>4798225.205593955</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60187.01990285363</v>
+        <v>5924392.38318288</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72373.88295470219</v>
+        <v>7050559.560771802</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84560.7460065507</v>
+        <v>8176726.738360721</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96747.60905839925</v>
+        <v>9302893.915949641</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>108725.3735003612</v>
+        <v>10429957.81802866</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120728.0833968653</v>
+        <v>11561985.8655628</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132730.7932933693</v>
+        <v>12694013.91309675</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144733.5031898736</v>
+        <v>13826041.96063064</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156736.2130863777</v>
+        <v>14958070.00816459</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169327.9831456355</v>
+        <v>16032408.80934766</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>181919.7532048933</v>
+        <v>17106747.61053072</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27055,16 +27055,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288.0000000000559</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>2.406195800751448e-10</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27150,16 +27150,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
